--- a/data/trans_orig/P17G-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Dificultad-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4661</v>
+        <v>5856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006332792547748273</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03157380506363182</v>
+        <v>0.03967093842036057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -812,19 +812,19 @@
         <v>3886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9699</v>
+        <v>8804</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01186854611220558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002914900171350797</v>
+        <v>0.002936904268810397</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02962550468219985</v>
+        <v>0.02688968156154874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>4821</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1879</v>
+        <v>1892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10714</v>
+        <v>10664</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0101481694969507</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003954737023449066</v>
+        <v>0.003982200099698798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02255393394251559</v>
+        <v>0.02245013888764145</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>2891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9238</v>
+        <v>7767</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01958134617040292</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006136393718933469</v>
+        <v>0.00605508465013828</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0625790184630473</v>
+        <v>0.05261297647909943</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5004</v>
+        <v>4567</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002738298466063026</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01528393664286764</v>
+        <v>0.01395000783132423</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>3787</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9508</v>
+        <v>9594</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007972705139476698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001908960180394199</v>
+        <v>0.001925236169235293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02001583171581948</v>
+        <v>0.02019611442285747</v>
       </c>
     </row>
     <row r="7">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7436</v>
+        <v>7827</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0108175537414435</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05037098062354507</v>
+        <v>0.05302066874385767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -954,19 +954,19 @@
         <v>3072</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9225</v>
+        <v>8240</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009383201879174529</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003006417254771743</v>
+        <v>0.002983832834907605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0281759126412837</v>
+        <v>0.0251668354280516</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -975,19 +975,19 @@
         <v>4669</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1582</v>
+        <v>1590</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11827</v>
+        <v>11041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009828963304997095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00333049789030988</v>
+        <v>0.003346509890645973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02489849814162924</v>
+        <v>0.02324267294254002</v>
       </c>
     </row>
     <row r="8">
@@ -1004,19 +1004,19 @@
         <v>142202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>136008</v>
+        <v>135455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145772</v>
+        <v>145745</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9632683075404053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9213072466065363</v>
+        <v>0.9175633857815174</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.987446987620438</v>
+        <v>0.9872647122599663</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>308</v>
@@ -1025,19 +1025,19 @@
         <v>319543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>312745</v>
+        <v>312757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>323611</v>
+        <v>323553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9760099535425568</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9552463132135102</v>
+        <v>0.9552830214087987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9884369235450992</v>
+        <v>0.9882585450277839</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>453</v>
@@ -1046,19 +1046,19 @@
         <v>461746</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>452798</v>
+        <v>453183</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>468479</v>
+        <v>468090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9720501620585755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9532126220628503</v>
+        <v>0.9540242965950504</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9862243100317861</v>
+        <v>0.9854052782857767</v>
       </c>
     </row>
     <row r="9">
@@ -1197,19 +1197,19 @@
         <v>2703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7287</v>
+        <v>7086</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01150302367869728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003713054458878708</v>
+        <v>0.003684996481525227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03100865218125048</v>
+        <v>0.03015541255862441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8473</v>
+        <v>7704</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006507811666239002</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02545057687781974</v>
+        <v>0.02314110686606546</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1239,19 +1239,19 @@
         <v>4870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1817</v>
+        <v>1830</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11795</v>
+        <v>10705</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00857476690036232</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003198920675713108</v>
+        <v>0.003222425935821574</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02076898833775911</v>
+        <v>0.01884967524098132</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>9537</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4424</v>
+        <v>4275</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19059</v>
+        <v>19635</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04058607354390868</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01882836058932419</v>
+        <v>0.01819086754982387</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08110455019029349</v>
+        <v>0.0835585581720963</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1289,19 +1289,19 @@
         <v>10495</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4924</v>
+        <v>5128</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19040</v>
+        <v>18757</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03152461176221521</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01479021992739972</v>
+        <v>0.01540278043993339</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0571925444313221</v>
+        <v>0.05634187141434058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1310,19 +1310,19 @@
         <v>20032</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11951</v>
+        <v>11405</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31127</v>
+        <v>30988</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03527412946271865</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02104402592760113</v>
+        <v>0.02008328120377191</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05481066514322924</v>
+        <v>0.05456585958452072</v>
       </c>
     </row>
     <row r="13">
@@ -1339,19 +1339,19 @@
         <v>3789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8996</v>
+        <v>9405</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01612280036499798</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00420395560375691</v>
+        <v>0.004152088100917216</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0382838724686889</v>
+        <v>0.04002135381129532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1360,19 +1360,19 @@
         <v>5816</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11763</v>
+        <v>11635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01747047616011237</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005906950653744393</v>
+        <v>0.00592877410724265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03533363119606543</v>
+        <v>0.03494937863432663</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1381,19 +1381,19 @@
         <v>9605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4739</v>
+        <v>4838</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16533</v>
+        <v>17157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0169128250470734</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008344594717440335</v>
+        <v>0.008518445899689536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02911208136353069</v>
+        <v>0.03021069024744262</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>218959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>208965</v>
+        <v>208181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>225233</v>
+        <v>225763</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9317881024123961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8892566793328183</v>
+        <v>0.8859199368268109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9584885126500379</v>
+        <v>0.9607412556513912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -1431,19 +1431,19 @@
         <v>314431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>304877</v>
+        <v>304698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322132</v>
+        <v>321911</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9444971004114334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9157986541825989</v>
+        <v>0.9152608092921508</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9676293370372588</v>
+        <v>0.9669663884836474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>528</v>
@@ -1452,19 +1452,19 @@
         <v>533390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>520640</v>
+        <v>520381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>544139</v>
+        <v>544560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9392382785898457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9167882053382087</v>
+        <v>0.9163319157532487</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9581658784803799</v>
+        <v>0.9589082074920671</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>7618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3673</v>
+        <v>3175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14341</v>
+        <v>14141</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04099735655229903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01976724209139261</v>
+        <v>0.0170861205309952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07717857399106628</v>
+        <v>0.07610257844699957</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>3890</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8837</v>
+        <v>9607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01444744549812965</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003651811225865607</v>
+        <v>0.003654591694407152</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0328176049355197</v>
+        <v>0.03567617464998777</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1645,19 +1645,19 @@
         <v>11508</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6442</v>
+        <v>6728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19939</v>
+        <v>19862</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02528756660213701</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01415631106556499</v>
+        <v>0.0147832659790538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0438124254135357</v>
+        <v>0.04364382980848166</v>
       </c>
     </row>
     <row r="18">
@@ -1674,19 +1674,19 @@
         <v>9448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4743</v>
+        <v>4762</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16754</v>
+        <v>16943</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05084665093099673</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02552442774842012</v>
+        <v>0.02563039118556042</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09016506511736329</v>
+        <v>0.09118261473102816</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1695,19 +1695,19 @@
         <v>12258</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6878</v>
+        <v>6745</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20857</v>
+        <v>21208</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04552267543715182</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02554233683035865</v>
+        <v>0.02504697599971346</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07745372831562268</v>
+        <v>0.07875740860098271</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -1716,19 +1716,19 @@
         <v>21706</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14029</v>
+        <v>13889</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30893</v>
+        <v>32959</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04769641300600078</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03082749240935564</v>
+        <v>0.03051815295074728</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06788356766754883</v>
+        <v>0.07242151399964331</v>
       </c>
     </row>
     <row r="19">
@@ -1745,19 +1745,19 @@
         <v>7061</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3331</v>
+        <v>3349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12701</v>
+        <v>13713</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03800058172515196</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01792463411788579</v>
+        <v>0.01802090956924928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06835221841286476</v>
+        <v>0.07380120801993886</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1766,19 +1766,19 @@
         <v>9846</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4173</v>
+        <v>4463</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17786</v>
+        <v>19692</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03656411180580327</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01549677903783657</v>
+        <v>0.01657542195437683</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06605081676805338</v>
+        <v>0.07312937695451464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1787,19 +1787,19 @@
         <v>16907</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9892</v>
+        <v>9817</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27105</v>
+        <v>26992</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03715061124289115</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02173578669699077</v>
+        <v>0.02157088251620364</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05955811600296502</v>
+        <v>0.05931128223923735</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>161685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151395</v>
+        <v>152530</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169059</v>
+        <v>169401</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8701554107915522</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8147731090634607</v>
+        <v>0.8208815903394162</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9098411274850354</v>
+        <v>0.9116821960808094</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -1837,19 +1837,19 @@
         <v>243288</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232342</v>
+        <v>231235</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252197</v>
+        <v>252268</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9034657672589153</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8628161041499417</v>
+        <v>0.8587069579829256</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9365495625387058</v>
+        <v>0.936812425910501</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>400</v>
@@ -1858,19 +1858,19 @@
         <v>404973</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>389670</v>
+        <v>390936</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>416804</v>
+        <v>417184</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8898654091489711</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8562389423194847</v>
+        <v>0.8590202294576875</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9158620319123411</v>
+        <v>0.9166962027169334</v>
       </c>
     </row>
     <row r="21">
@@ -2009,19 +2009,19 @@
         <v>4040</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1068</v>
+        <v>1087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9684</v>
+        <v>9970</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05649178132074318</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01493609728823132</v>
+        <v>0.01519657753456064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1354014896687025</v>
+        <v>0.1394047604902168</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2043,19 +2043,19 @@
         <v>4040</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1117</v>
+        <v>973</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10448</v>
+        <v>9577</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02543836500614217</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007030116486294751</v>
+        <v>0.006124687849085941</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06578444399572717</v>
+        <v>0.06030190681905958</v>
       </c>
     </row>
     <row r="24">
@@ -2072,19 +2072,19 @@
         <v>4920</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11237</v>
+        <v>12091</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06878858508829395</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01471444332847865</v>
+        <v>0.0146577587752474</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1571184588756837</v>
+        <v>0.1690651666989044</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2096,16 +2096,16 @@
         <v>1293</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10968</v>
+        <v>10641</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05450959488314659</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01481455070497816</v>
+        <v>0.01481445207680472</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1256238230098173</v>
+        <v>0.121881024831408</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2114,19 +2114,19 @@
         <v>9679</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4708</v>
+        <v>4448</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19076</v>
+        <v>18412</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06093945346196063</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02964539514656283</v>
+        <v>0.02800534689188667</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1201075592193052</v>
+        <v>0.1159271681292528</v>
       </c>
     </row>
     <row r="25">
@@ -2143,19 +2143,19 @@
         <v>4710</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1764</v>
+        <v>1823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10334</v>
+        <v>10405</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06585748664758129</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02466579366056234</v>
+        <v>0.02548346605648035</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1444900017468072</v>
+        <v>0.1454859779957681</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2164,19 +2164,19 @@
         <v>7022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2907</v>
+        <v>2941</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13892</v>
+        <v>13309</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08042790253928714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03329834406889461</v>
+        <v>0.0336900422521715</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1591193000838494</v>
+        <v>0.1524437991697994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2185,19 +2185,19 @@
         <v>11732</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6628</v>
+        <v>6596</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19489</v>
+        <v>19194</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07386681437603586</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04172984199809903</v>
+        <v>0.04152944337674114</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1227049645786984</v>
+        <v>0.1208495482020824</v>
       </c>
     </row>
     <row r="26">
@@ -2214,19 +2214,19 @@
         <v>57849</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50553</v>
+        <v>49204</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63802</v>
+        <v>63461</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8088621469433815</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7068470365150884</v>
+        <v>0.6879908407599085</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8920985267313931</v>
+        <v>0.8873365119676301</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>75</v>
@@ -2235,19 +2235,19 @@
         <v>75525</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67377</v>
+        <v>68013</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80562</v>
+        <v>81111</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8650625025775662</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7717358599690269</v>
+        <v>0.7790226919551099</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9227581592932853</v>
+        <v>0.9290457799671387</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>132</v>
@@ -2256,19 +2256,19 @@
         <v>133374</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>122232</v>
+        <v>122733</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>141936</v>
+        <v>141946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8397553671558613</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.769604499942718</v>
+        <v>0.7727566284242708</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8936610538249135</v>
+        <v>0.8937277608197801</v>
       </c>
     </row>
     <row r="27">
@@ -2407,19 +2407,19 @@
         <v>15296</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8727</v>
+        <v>9182</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23598</v>
+        <v>24865</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0239020706596164</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01363778406071794</v>
+        <v>0.01434749183015767</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03687559334097333</v>
+        <v>0.0388549090961092</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2428,19 +2428,19 @@
         <v>9943</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5084</v>
+        <v>5163</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17971</v>
+        <v>18637</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009777504457575447</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004999436019435527</v>
+        <v>0.005077367627299418</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01767204093157572</v>
+        <v>0.01832737522376449</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -2449,19 +2449,19 @@
         <v>25239</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16959</v>
+        <v>16536</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37049</v>
+        <v>35664</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01523303786894204</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01023553091998739</v>
+        <v>0.009980421288553197</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02236120570286394</v>
+        <v>0.02152503126219668</v>
       </c>
     </row>
     <row r="30">
@@ -2478,19 +2478,19 @@
         <v>26796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17100</v>
+        <v>17665</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39887</v>
+        <v>38490</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04187169869779087</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02672158534538163</v>
+        <v>0.02760351149284258</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06232874243607286</v>
+        <v>0.06014591985973356</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>26</v>
@@ -2499,19 +2499,19 @@
         <v>28409</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19362</v>
+        <v>19013</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>40915</v>
+        <v>41236</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02793683512332351</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01904011091991042</v>
+        <v>0.01869693561363436</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04023573404312595</v>
+        <v>0.04055129506859405</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>51</v>
@@ -2520,19 +2520,19 @@
         <v>55204</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>42295</v>
+        <v>41221</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>71409</v>
+        <v>72607</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03331909697306139</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02552780172190861</v>
+        <v>0.02487958223531295</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04309981815475013</v>
+        <v>0.04382250601778132</v>
       </c>
     </row>
     <row r="31">
@@ -2549,19 +2549,19 @@
         <v>17157</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11039</v>
+        <v>10778</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27461</v>
+        <v>27499</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02680958666486606</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01725006046215703</v>
+        <v>0.01684210743241951</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04291088828128502</v>
+        <v>0.04297113832336486</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2570,19 +2570,19 @@
         <v>25756</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16320</v>
+        <v>17078</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37472</v>
+        <v>38764</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02532812720962286</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01604898625093356</v>
+        <v>0.0167943818470428</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03684903884943803</v>
+        <v>0.03811955458490314</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -2591,19 +2591,19 @@
         <v>42913</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31136</v>
+        <v>30165</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>57237</v>
+        <v>56604</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02590033250358059</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01879245212442221</v>
+        <v>0.01820636465770782</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03454564125964274</v>
+        <v>0.03416394997610175</v>
       </c>
     </row>
     <row r="32">
@@ -2620,19 +2620,19 @@
         <v>580697</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>565073</v>
+        <v>565449</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>594432</v>
+        <v>594339</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9074166439777267</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8830025114151507</v>
+        <v>0.8835899928176512</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9288802807869831</v>
+        <v>0.9287350865526204</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>931</v>
@@ -2641,19 +2641,19 @@
         <v>952786</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>934814</v>
+        <v>934086</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>966654</v>
+        <v>966064</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9369575332094782</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9192838869370782</v>
+        <v>0.9185680490545284</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9505944832189208</v>
+        <v>0.9500141867488332</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1513</v>
@@ -2662,19 +2662,19 @@
         <v>1533483</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1509182</v>
+        <v>1510947</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1553692</v>
+        <v>1554624</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.925547532654416</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.910880332363131</v>
+        <v>0.9119457715685355</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9377449731290726</v>
+        <v>0.9383074900555154</v>
       </c>
     </row>
     <row r="33">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4230</v>
+        <v>4628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003462202027328512</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01598705038614694</v>
+        <v>0.01749008320790881</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5511</v>
+        <v>4617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001364408315199449</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008208258207758249</v>
+        <v>0.006876845223294474</v>
       </c>
     </row>
     <row r="5">
@@ -3069,19 +3069,19 @@
         <v>5407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1929</v>
+        <v>1902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12790</v>
+        <v>12034</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02043476911572278</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007290834091147619</v>
+        <v>0.007187741173796182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04833341338225987</v>
+        <v>0.04547928304496814</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3103,19 +3103,19 @@
         <v>5407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1915</v>
+        <v>1941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12535</v>
+        <v>12521</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008053073934043859</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002852008821856134</v>
+        <v>0.002890170329262406</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01866894131416677</v>
+        <v>0.0186477459181281</v>
       </c>
     </row>
     <row r="6">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4662</v>
+        <v>4635</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003479203827021912</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01762010714749499</v>
+        <v>0.01751659811000964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>3101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9276</v>
+        <v>9167</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007621263474538724</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002433990680302453</v>
+        <v>0.002420252259067425</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02279907219807031</v>
+        <v>0.02253198963060928</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -3177,16 +3177,16 @@
         <v>996</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10106</v>
+        <v>9983</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005988932206601483</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001483036059359665</v>
+        <v>0.001482880122943952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01505066190744125</v>
+        <v>0.01486738164158302</v>
       </c>
     </row>
     <row r="7">
@@ -3203,19 +3203,19 @@
         <v>2872</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7743</v>
+        <v>7459</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01085413469872365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00336735151852479</v>
+        <v>0.003337599223781567</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0292609505769901</v>
+        <v>0.02818792935623731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7723</v>
+        <v>7674</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004720001267316773</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01898383697128736</v>
+        <v>0.01886140005998965</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -3245,19 +3245,19 @@
         <v>4792</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11348</v>
+        <v>10591</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007137382631630882</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002819054078015396</v>
+        <v>0.002807540511399564</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.016900304045272</v>
+        <v>0.01577293443119114</v>
       </c>
     </row>
     <row r="8">
@@ -3274,19 +3274,19 @@
         <v>254494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>245853</v>
+        <v>245719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>259748</v>
+        <v>259321</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9617696903312032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.929115713006986</v>
+        <v>0.9286097795849489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9816262655493676</v>
+        <v>0.9800111404556759</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>371</v>
@@ -3295,19 +3295,19 @@
         <v>401819</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394912</v>
+        <v>395897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>404905</v>
+        <v>404921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9876587352581445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9706809688272694</v>
+        <v>0.9731018108303989</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9952447342588241</v>
+        <v>0.9952836054166944</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -3316,19 +3316,19 @@
         <v>656313</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>647951</v>
+        <v>646728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>663062</v>
+        <v>662255</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9774562029125243</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9650030193378536</v>
+        <v>0.9631805102360328</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9875074272333383</v>
+        <v>0.9863056731855483</v>
       </c>
     </row>
     <row r="9">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4981</v>
+        <v>4971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004618255664965799</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02339801493553123</v>
+        <v>0.0233515149243207</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4838</v>
+        <v>5451</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002634443523827766</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01333151244614003</v>
+        <v>0.01501858067973937</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7770</v>
+        <v>6874</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003367843521111594</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01349481993593533</v>
+        <v>0.01193863586272903</v>
       </c>
     </row>
     <row r="12">
@@ -3538,19 +3538,19 @@
         <v>6210</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2165</v>
+        <v>2114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15945</v>
+        <v>15326</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02917171842283245</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01017079883789039</v>
+        <v>0.009929345245714007</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07490609589390072</v>
+        <v>0.07199881735293989</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3559,19 +3559,19 @@
         <v>8977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4216</v>
+        <v>4074</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16048</v>
+        <v>17341</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02473606028411025</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01161782246387763</v>
+        <v>0.01122636887438812</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04421976519080024</v>
+        <v>0.04778124505965343</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -3580,19 +3580,19 @@
         <v>15187</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8830</v>
+        <v>8608</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25873</v>
+        <v>26518</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02637588877362875</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01533477307763152</v>
+        <v>0.01494953888297309</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04493530726145352</v>
+        <v>0.04605468751620025</v>
       </c>
     </row>
     <row r="13">
@@ -3609,19 +3609,19 @@
         <v>4877</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1854</v>
+        <v>1873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10255</v>
+        <v>10817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02290924909754102</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00870980056552551</v>
+        <v>0.008796838616951503</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04817598227400158</v>
+        <v>0.05081630876297958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3630,19 +3630,19 @@
         <v>5839</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2095</v>
+        <v>1873</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14135</v>
+        <v>12885</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01608778463164186</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005772844333775309</v>
+        <v>0.005160820752362435</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03894829507743823</v>
+        <v>0.03550503574866214</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -3651,19 +3651,19 @@
         <v>10715</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5678</v>
+        <v>5744</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19893</v>
+        <v>19265</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01860962725827899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009861714788139204</v>
+        <v>0.00997668348217887</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03454932885071173</v>
+        <v>0.0334594366800139</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>200793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>192399</v>
+        <v>191072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>206355</v>
+        <v>206810</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9433007768146607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9038659850299302</v>
+        <v>0.8976331236218421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9694288861327502</v>
+        <v>0.9715694917246782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>325</v>
@@ -3701,19 +3701,19 @@
         <v>347148</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337615</v>
+        <v>337139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>353820</v>
+        <v>353913</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9565417115604201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9302732454692022</v>
+        <v>0.9289621640900583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.974925742806373</v>
+        <v>0.9751819796381622</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>510</v>
@@ -3722,19 +3722,19 @@
         <v>547942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>535352</v>
+        <v>534371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>556785</v>
+        <v>556926</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9516466404469807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9297816126828377</v>
+        <v>0.9280777743379729</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9670043271518363</v>
+        <v>0.9672503450338684</v>
       </c>
     </row>
     <row r="15">
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4225</v>
+        <v>4057</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004274826515316489</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02248695404516853</v>
+        <v>0.02159283759781496</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4050</v>
+        <v>5184</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001821742678166461</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009187765485845129</v>
+        <v>0.01175917199928433</v>
       </c>
     </row>
     <row r="18">
@@ -3936,19 +3936,19 @@
         <v>7954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3891</v>
+        <v>3972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14432</v>
+        <v>15327</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04234083820689497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02071019457186368</v>
+        <v>0.02114321491959901</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07682094320932215</v>
+        <v>0.08158404842652346</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -3957,19 +3957,19 @@
         <v>4090</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10374</v>
+        <v>10240</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01616637361408882</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004139359733904059</v>
+        <v>0.004092211627456511</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04100941956721972</v>
+        <v>0.04047741732251122</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -3978,19 +3978,19 @@
         <v>12044</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6137</v>
+        <v>5981</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20266</v>
+        <v>20111</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02732077696964619</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01392215805024963</v>
+        <v>0.01356655027587983</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04597136257254345</v>
+        <v>0.04562072305473362</v>
       </c>
     </row>
     <row r="19">
@@ -4007,19 +4007,19 @@
         <v>5036</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1946</v>
+        <v>1962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11101</v>
+        <v>11128</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02680859397462627</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0103568641689383</v>
+        <v>0.01044092260199699</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05909081125966947</v>
+        <v>0.05923586396232811</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4028,19 +4028,19 @@
         <v>9791</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4867</v>
+        <v>4752</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18657</v>
+        <v>19337</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03870490844355152</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01924072079240082</v>
+        <v>0.01878450544399062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07374907715876729</v>
+        <v>0.07643988753267443</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -4049,19 +4049,19 @@
         <v>14828</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8649</v>
+        <v>7764</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25428</v>
+        <v>24072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03363522346258667</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01961946012526338</v>
+        <v>0.01761107708662661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05767992674297587</v>
+        <v>0.05460441159824403</v>
       </c>
     </row>
     <row r="20">
@@ -4078,19 +4078,19 @@
         <v>174073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165813</v>
+        <v>165166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179847</v>
+        <v>179412</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9265757413031622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8826093463043736</v>
+        <v>0.8791645142404528</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9573103223391163</v>
+        <v>0.9549961080540498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>227</v>
@@ -4099,19 +4099,19 @@
         <v>239093</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229796</v>
+        <v>229655</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245119</v>
+        <v>245534</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9451287179423596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9083764846386808</v>
+        <v>0.9078197694170749</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.968947570800516</v>
+        <v>0.9705888725321685</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>390</v>
@@ -4120,19 +4120,19 @@
         <v>413166</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>401158</v>
+        <v>401578</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>421885</v>
+        <v>423086</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9372222568896007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9099829584092389</v>
+        <v>0.9109358711034603</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9570009964144116</v>
+        <v>0.9597249271818737</v>
       </c>
     </row>
     <row r="21">
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7823</v>
+        <v>11390</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0162924011010222</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07185702732108738</v>
+        <v>0.1046169243602699</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10097</v>
+        <v>10459</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008392368044972906</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04777105243894273</v>
+        <v>0.04948276449522647</v>
       </c>
     </row>
     <row r="24">
@@ -4334,19 +4334,19 @@
         <v>4052</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10040</v>
+        <v>9006</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03953302832584543</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009958117562054893</v>
+        <v>0.009833208601417008</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09796612542113922</v>
+        <v>0.08787809978101234</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4355,19 +4355,19 @@
         <v>3024</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8291</v>
+        <v>8195</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02777954239611401</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008919558953186465</v>
+        <v>0.008950640879600305</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07615637002131688</v>
+        <v>0.07527061509656065</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -4376,19 +4376,19 @@
         <v>7076</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2953</v>
+        <v>2994</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13510</v>
+        <v>13717</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03347869789768479</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01397157591114136</v>
+        <v>0.0141636647559509</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06391843118966675</v>
+        <v>0.06489861568324601</v>
       </c>
     </row>
     <row r="25">
@@ -4405,19 +4405,19 @@
         <v>11703</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5406</v>
+        <v>5240</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21924</v>
+        <v>21229</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1141888233992409</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05274836074243362</v>
+        <v>0.05113159764055215</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2139201108605497</v>
+        <v>0.2071417898486146</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -4426,19 +4426,19 @@
         <v>6880</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2709</v>
+        <v>2794</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14352</v>
+        <v>13668</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06319361071300769</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0248831306729044</v>
+        <v>0.02566685082155395</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1318272466892174</v>
+        <v>0.1255433989522496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -4447,19 +4447,19 @@
         <v>18583</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10540</v>
+        <v>10406</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31459</v>
+        <v>30356</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08792071284016013</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04986667177709105</v>
+        <v>0.04923273845097663</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1488430711285882</v>
+        <v>0.1436203447038401</v>
       </c>
     </row>
     <row r="26">
@@ -4476,19 +4476,19 @@
         <v>86732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77153</v>
+        <v>75719</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94230</v>
+        <v>93441</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8462781482749137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7528122240483743</v>
+        <v>0.7388275189048733</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9194400119394651</v>
+        <v>0.9117412392189503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>89</v>
@@ -4497,19 +4497,19 @@
         <v>97195</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88571</v>
+        <v>88678</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103027</v>
+        <v>102620</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8927344457898561</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8135219854332567</v>
+        <v>0.8145052765617679</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9463009066327199</v>
+        <v>0.9425680004164626</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>166</v>
@@ -4518,19 +4518,19 @@
         <v>183927</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>171359</v>
+        <v>171321</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>193554</v>
+        <v>194138</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8702082212171822</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8107430238887088</v>
+        <v>0.8105656464857611</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9157574132519621</v>
+        <v>0.9185164246349161</v>
       </c>
     </row>
     <row r="27">
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4600</v>
+        <v>4605</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001193151462079212</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005990991115036336</v>
+        <v>0.005998036451956202</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4588</v>
+        <v>5474</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0004823185545742357</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.002415615438895462</v>
+        <v>0.002881985520694835</v>
       </c>
     </row>
     <row r="29">
@@ -4685,19 +4685,19 @@
         <v>7193</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2877</v>
+        <v>2934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14745</v>
+        <v>14916</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009368521098168596</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003747568160991819</v>
+        <v>0.003821547000642591</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01920306343656376</v>
+        <v>0.01942606582028805</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9025</v>
+        <v>11571</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002412409838934893</v>
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.007975174972534025</v>
+        <v>0.01022488267688026</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -4727,19 +4727,19 @@
         <v>9923</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4721</v>
+        <v>4662</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18985</v>
+        <v>18504</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005224342468313365</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002485635472036734</v>
+        <v>0.002454481816049747</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009995168141812909</v>
+        <v>0.009741780888192291</v>
       </c>
     </row>
     <row r="30">
@@ -4756,19 +4756,19 @@
         <v>19136</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11961</v>
+        <v>11758</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29587</v>
+        <v>30349</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02492263841489007</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01557812678140483</v>
+        <v>0.01531276102712907</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03853300963215998</v>
+        <v>0.03952651093038544</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -4777,19 +4777,19 @@
         <v>19192</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12312</v>
+        <v>12929</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30200</v>
+        <v>31034</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01695991970428917</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0108799512051079</v>
+        <v>0.01142518456922845</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02668808755380955</v>
+        <v>0.02742444885197929</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -4798,19 +4798,19 @@
         <v>38328</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27041</v>
+        <v>27072</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>51079</v>
+        <v>53679</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02017876249251791</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01423618633116188</v>
+        <v>0.01425250219457974</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02689179090908202</v>
+        <v>0.02826076789628599</v>
       </c>
     </row>
     <row r="31">
@@ -4827,19 +4827,19 @@
         <v>24488</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15490</v>
+        <v>15634</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38945</v>
+        <v>37220</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03189250552753974</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02017359356656618</v>
+        <v>0.02036084223276831</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05072094069006702</v>
+        <v>0.04847417094584302</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -4848,19 +4848,19 @@
         <v>24430</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15794</v>
+        <v>15234</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>38312</v>
+        <v>36959</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02158901772403045</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01395705359200256</v>
+        <v>0.01346232276149895</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03385594342006048</v>
+        <v>0.03266048778439971</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -4869,19 +4869,19 @@
         <v>48918</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>36842</v>
+        <v>34995</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68855</v>
+        <v>65367</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02575409106333793</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01939617327326888</v>
+        <v>0.0184236649488174</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03625013822411474</v>
+        <v>0.03441370268560399</v>
       </c>
     </row>
     <row r="32">
@@ -4898,19 +4898,19 @@
         <v>716091</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>697546</v>
+        <v>698316</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>728462</v>
+        <v>728662</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9326231834973224</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9084706298792593</v>
+        <v>0.9094735056473759</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9487350401905956</v>
+        <v>0.9489953444811892</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1012</v>
@@ -4919,19 +4919,19 @@
         <v>1085256</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1069163</v>
+        <v>1070702</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1097696</v>
+        <v>1097684</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9590386527327455</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9448171183993185</v>
+        <v>0.9461772967632291</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9700319881596675</v>
+        <v>0.970021663805155</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1670</v>
@@ -4940,19 +4940,19 @@
         <v>1801348</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1779215</v>
+        <v>1781623</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1820880</v>
+        <v>1822561</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9483604854212565</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9367078917941576</v>
+        <v>0.9379756254684641</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9586435625649249</v>
+        <v>0.9595283022477742</v>
       </c>
     </row>
     <row r="33">
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7127</v>
+        <v>7019</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007303636554988571</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02600218945132697</v>
+        <v>0.02560509864735881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7155</v>
+        <v>7001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002842760735417973</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01015945897749473</v>
+        <v>0.009941803381088838</v>
       </c>
     </row>
     <row r="6">
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8301</v>
+        <v>8279</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008376577351719672</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03028352801449384</v>
+        <v>0.03020212649161487</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9740</v>
+        <v>10050</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006629446974785107</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02264434476376315</v>
+        <v>0.02336501595812558</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -5436,19 +5436,19 @@
         <v>5148</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13245</v>
+        <v>13225</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007309474464900729</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001865661010696937</v>
+        <v>0.001866704208863947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01880710317108309</v>
+        <v>0.01877954113641314</v>
       </c>
     </row>
     <row r="7">
@@ -5465,19 +5465,19 @@
         <v>3933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10781</v>
+        <v>11661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01434999592685783</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003622750074206867</v>
+        <v>0.003646853271534541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03933263488072201</v>
+        <v>0.04253990241164769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5486,19 +5486,19 @@
         <v>5573</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1894</v>
+        <v>1877</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13423</v>
+        <v>12221</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01295745463854318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004404239235126572</v>
+        <v>0.004362634964341528</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03120579514407077</v>
+        <v>0.02841123189216556</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -5507,19 +5507,19 @@
         <v>9507</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4608</v>
+        <v>4274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18548</v>
+        <v>18450</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01349946705483262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006543238864184374</v>
+        <v>0.006068434380320114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02633680471286154</v>
+        <v>0.02619818678625907</v>
       </c>
     </row>
     <row r="8">
@@ -5536,19 +5536,19 @@
         <v>265877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257362</v>
+        <v>257331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>270306</v>
+        <v>270842</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9699697901664339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9389041350012214</v>
+        <v>0.9387912736515831</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9861274799367358</v>
+        <v>0.9880828501542606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>389</v>
@@ -5557,19 +5557,19 @@
         <v>421709</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>413251</v>
+        <v>413099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>426893</v>
+        <v>426614</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9804130983866717</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9607484818994427</v>
+        <v>0.9603952558064695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9924644719857885</v>
+        <v>0.9918159125679208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>635</v>
@@ -5578,19 +5578,19 @@
         <v>687586</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>675899</v>
+        <v>677545</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>694628</v>
+        <v>695239</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9763482977448487</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9597523760133454</v>
+        <v>0.9620894447673135</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9863473231250908</v>
+        <v>0.9872150924097641</v>
       </c>
     </row>
     <row r="9">
@@ -5729,19 +5729,19 @@
         <v>2858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7818</v>
+        <v>7679</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01293253311960814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004267951338423255</v>
+        <v>0.004260049978903577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03537884860871603</v>
+        <v>0.0347462651076566</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -5750,19 +5750,19 @@
         <v>2785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7621</v>
+        <v>7602</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008611158042928146</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002720482651515926</v>
+        <v>0.002680225773347536</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02356290199718269</v>
+        <v>0.02350462180123624</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -5771,19 +5771,19 @@
         <v>5643</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11268</v>
+        <v>11338</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01036523871634876</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003500778424321013</v>
+        <v>0.003496829944607437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02069759361086287</v>
+        <v>0.02082601436418796</v>
       </c>
     </row>
     <row r="12">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5289</v>
+        <v>5060</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004610334895871876</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02393291521377119</v>
+        <v>0.02289533650360953</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5821,19 +5821,19 @@
         <v>6415</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2502</v>
+        <v>2575</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13807</v>
+        <v>12912</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01983220406556475</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007734011902460605</v>
+        <v>0.007960937016952248</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04268727590244886</v>
+        <v>0.0399211203070871</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -5842,19 +5842,19 @@
         <v>7433</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2989</v>
+        <v>3507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15712</v>
+        <v>15826</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01365352573977391</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005489397163440155</v>
+        <v>0.006441273942993766</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02885902068547755</v>
+        <v>0.02906884543775411</v>
       </c>
     </row>
     <row r="13">
@@ -5871,19 +5871,19 @@
         <v>10003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5108</v>
+        <v>4931</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17315</v>
+        <v>17174</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04526540415898504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02311572373323109</v>
+        <v>0.02231350623773664</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07835070353317763</v>
+        <v>0.07771485256284225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5892,19 +5892,19 @@
         <v>11537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5614</v>
+        <v>6205</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20788</v>
+        <v>21762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03566827770981758</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01735779790786802</v>
+        <v>0.01918464211875296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06427134760120597</v>
+        <v>0.06728168186569707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -5913,19 +5913,19 @@
         <v>21540</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13438</v>
+        <v>13488</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33140</v>
+        <v>33255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03956382802103744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02468185592504365</v>
+        <v>0.02477413385850404</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06087145103196977</v>
+        <v>0.06108134564972031</v>
       </c>
     </row>
     <row r="14">
@@ -5942,19 +5942,19 @@
         <v>207110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198351</v>
+        <v>198687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213017</v>
+        <v>213026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9371917278255349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8975550220627996</v>
+        <v>0.8990759491212246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9639213171647188</v>
+        <v>0.9639621059163683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>281</v>
@@ -5963,19 +5963,19 @@
         <v>302707</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>292013</v>
+        <v>291688</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>311507</v>
+        <v>310343</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9358883601816895</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9028274925708933</v>
+        <v>0.9018204644664158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9630970123182265</v>
+        <v>0.9594978193549404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>482</v>
@@ -5984,19 +5984,19 @@
         <v>509817</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>496080</v>
+        <v>496616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>519678</v>
+        <v>520038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9364174075228399</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9111857755092628</v>
+        <v>0.9121713604340533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9545309905591723</v>
+        <v>0.955192458909784</v>
       </c>
     </row>
     <row r="15">
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5871</v>
+        <v>5237</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004535729338950912</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02708180111234432</v>
+        <v>0.02415581983746572</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4924</v>
+        <v>5519</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00210508991984484</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01054110794572408</v>
+        <v>0.01181482670460638</v>
       </c>
     </row>
     <row r="17">
@@ -6151,19 +6151,19 @@
         <v>3890</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9937</v>
+        <v>9032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01794404378516751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004588729540293045</v>
+        <v>0.004571767868600161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0458366169471568</v>
+        <v>0.04166303292786514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7093</v>
+        <v>6675</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008006139858379294</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02833664493707468</v>
+        <v>0.02666699100489463</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -6193,19 +6193,19 @@
         <v>5894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2073</v>
+        <v>2786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11915</v>
+        <v>12002</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01261844800494675</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004438255448060655</v>
+        <v>0.005964591755277479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02550918052566191</v>
+        <v>0.02569397448741203</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>5156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13857</v>
+        <v>13373</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02378183664546558</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007573014645303997</v>
+        <v>0.007569119521136573</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06391854394844422</v>
+        <v>0.06168523606999124</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7578</v>
+        <v>7856</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0089644270595295</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03027216863017727</v>
+        <v>0.0313851104592218</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -6264,19 +6264,19 @@
         <v>7400</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3290</v>
+        <v>3056</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16466</v>
+        <v>16532</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01584137610710668</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007043804206951578</v>
+        <v>0.00654166323351466</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03525099130954003</v>
+        <v>0.0353933563323987</v>
       </c>
     </row>
     <row r="19">
@@ -6293,19 +6293,19 @@
         <v>15958</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9452</v>
+        <v>9260</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25636</v>
+        <v>25733</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07361000779703207</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04360025826584363</v>
+        <v>0.04271532007393878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1182506360768346</v>
+        <v>0.1187006307938262</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6314,19 +6314,19 @@
         <v>15824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9094</v>
+        <v>9243</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24850</v>
+        <v>24904</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06321720817979104</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0363286450283164</v>
+        <v>0.03692507245716468</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09927406874044249</v>
+        <v>0.09948975942070215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -6335,19 +6335,19 @@
         <v>31782</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22097</v>
+        <v>21480</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46080</v>
+        <v>45845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06804063922655663</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04730549851454468</v>
+        <v>0.04598620148891831</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09865054144415999</v>
+        <v>0.09814624402465381</v>
       </c>
     </row>
     <row r="20">
@@ -6364,19 +6364,19 @@
         <v>190803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178006</v>
+        <v>179948</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198825</v>
+        <v>199772</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8801283824333839</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8210987269541713</v>
+        <v>0.8300544703176429</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.917130585433125</v>
+        <v>0.921501758082282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>215</v>
@@ -6385,19 +6385,19 @@
         <v>230244</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219011</v>
+        <v>220708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237468</v>
+        <v>238189</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9198122249023002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8749396952598687</v>
+        <v>0.8817158680749126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9486720165608967</v>
+        <v>0.9515538069735762</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>404</v>
@@ -6406,19 +6406,19 @@
         <v>421046</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>404460</v>
+        <v>406204</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>433354</v>
+        <v>433136</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9013944467415451</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8658861235013661</v>
+        <v>0.8696202199595072</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9277446461286464</v>
+        <v>0.9272773702601296</v>
       </c>
     </row>
     <row r="21">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7526</v>
+        <v>7208</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01754558659659824</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06209518332688904</v>
+        <v>0.05946883947538661</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7238</v>
+        <v>7346</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008374583649404093</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02850183930876008</v>
+        <v>0.02893078795406089</v>
       </c>
     </row>
     <row r="24">
@@ -6620,19 +6620,19 @@
         <v>7730</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14578</v>
+        <v>15162</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06378013093328337</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02556638319850417</v>
+        <v>0.02555953618612337</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1202818827488027</v>
+        <v>0.1250930598015281</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -6641,19 +6641,19 @@
         <v>7664</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3536</v>
+        <v>3294</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14829</v>
+        <v>15829</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05774006587732816</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02664233151899403</v>
+        <v>0.02481953738169828</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1117263388886844</v>
+        <v>0.1192588588274795</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -6662,19 +6662,19 @@
         <v>15394</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8609</v>
+        <v>8907</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25760</v>
+        <v>24146</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06062301480470951</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03390223236867433</v>
+        <v>0.03507618557372502</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1014463171471188</v>
+        <v>0.09508735179142902</v>
       </c>
     </row>
     <row r="25">
@@ -6691,19 +6691,19 @@
         <v>14519</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8145</v>
+        <v>7752</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23633</v>
+        <v>23210</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1197900376185058</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0672039787994068</v>
+        <v>0.06395842108828979</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1949849202823322</v>
+        <v>0.1915023865334627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -6712,19 +6712,19 @@
         <v>13280</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7220</v>
+        <v>7067</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22329</v>
+        <v>21797</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1000513657989274</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05440007056439582</v>
+        <v>0.05324435244659664</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1682299393601296</v>
+        <v>0.1642253024886967</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -6733,19 +6733,19 @@
         <v>27799</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19052</v>
+        <v>18661</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38755</v>
+        <v>39950</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1094727184206314</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07502907732447289</v>
+        <v>0.07348675125845329</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1526214889266189</v>
+        <v>0.1573252408715733</v>
       </c>
     </row>
     <row r="26">
@@ -6762,19 +6762,19 @@
         <v>96826</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86670</v>
+        <v>86844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105002</v>
+        <v>105570</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7988842448516126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7150904238685408</v>
+        <v>0.7165229549714851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8663423928767207</v>
+        <v>0.8710265184815714</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -6783,19 +6783,19 @@
         <v>111786</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102140</v>
+        <v>101650</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119860</v>
+        <v>119510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8422085683237444</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7695415884436354</v>
+        <v>0.7658431679938804</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9030440566676783</v>
+        <v>0.9004079174870042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>194</v>
@@ -6804,19 +6804,19 @@
         <v>208612</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>195039</v>
+        <v>194528</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>220904</v>
+        <v>220383</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.821529683125255</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7680795826500206</v>
+        <v>0.7660665174507</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8699355275858118</v>
+        <v>0.8678864749966007</v>
       </c>
     </row>
     <row r="27">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4867</v>
+        <v>5885</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001180302099232103</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005841625096732157</v>
+        <v>0.007064142984991198</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5599</v>
+        <v>4926</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0004992093855661618</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.002842452144572033</v>
+        <v>0.002501000202785219</v>
       </c>
     </row>
     <row r="29">
@@ -6971,19 +6971,19 @@
         <v>10877</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5813</v>
+        <v>5873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19344</v>
+        <v>18781</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01305571697668946</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006977769035134101</v>
+        <v>0.00705006726516577</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02321909320226424</v>
+        <v>0.02254366738721832</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -6992,19 +6992,19 @@
         <v>4789</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1763</v>
+        <v>1798</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10332</v>
+        <v>11243</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004213615292094063</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001551072361077727</v>
+        <v>0.001581754598775204</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.009090310627744451</v>
+        <v>0.009891214201051022</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -7013,19 +7013,19 @@
         <v>15666</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9691</v>
+        <v>9687</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24710</v>
+        <v>24711</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00795338678953709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004920045030840481</v>
+        <v>0.004918011026678766</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01254491251803162</v>
+        <v>0.01254544376848353</v>
       </c>
     </row>
     <row r="30">
@@ -7042,19 +7042,19 @@
         <v>16201</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9466</v>
+        <v>8367</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26894</v>
+        <v>27088</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01944672041262656</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01136272663102483</v>
+        <v>0.01004384931441845</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03228197942194751</v>
+        <v>0.03251552879764231</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -7063,19 +7063,19 @@
         <v>19174</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11286</v>
+        <v>11472</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29154</v>
+        <v>29592</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01686914901599857</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009929164055124734</v>
+        <v>0.01009347505468833</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02564942474449006</v>
+        <v>0.02603475123232863</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>31</v>
@@ -7084,19 +7084,19 @@
         <v>35375</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24451</v>
+        <v>25037</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>48971</v>
+        <v>49281</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01795933417622214</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01241371227931922</v>
+        <v>0.01271105334704326</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02486211806522499</v>
+        <v>0.02501915738118475</v>
       </c>
     </row>
     <row r="31">
@@ -7113,19 +7113,19 @@
         <v>44413</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32005</v>
+        <v>31332</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>61193</v>
+        <v>59753</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05331155001405287</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03841709026345715</v>
+        <v>0.03760959324921059</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07345262875360012</v>
+        <v>0.07172418280132124</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>42</v>
@@ -7134,19 +7134,19 @@
         <v>46214</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>33919</v>
+        <v>32789</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>62609</v>
+        <v>62287</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04065913560086541</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02984188806723894</v>
+        <v>0.02884791071820906</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05508302764773637</v>
+        <v>0.05480043730034388</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>82</v>
@@ -7155,19 +7155,19 @@
         <v>90627</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>73155</v>
+        <v>73364</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>111520</v>
+        <v>111637</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04601048084480341</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03714015583565321</v>
+        <v>0.03724606210275749</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05661727939115881</v>
+        <v>0.0566769104157465</v>
       </c>
     </row>
     <row r="32">
@@ -7184,19 +7184,19 @@
         <v>760617</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>742515</v>
+        <v>741787</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>775962</v>
+        <v>777599</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.913005710497399</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.891277364398568</v>
+        <v>0.8904034159356971</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9314258043717005</v>
+        <v>0.9333904307136719</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>988</v>
@@ -7205,19 +7205,19 @@
         <v>1066444</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1047754</v>
+        <v>1048725</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1081677</v>
+        <v>1084080</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9382581000910419</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9218145893842715</v>
+        <v>0.9226687294968182</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9516603426000584</v>
+        <v>0.9537740247382015</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1715</v>
@@ -7226,19 +7226,19 @@
         <v>1827061</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1800338</v>
+        <v>1803143</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1850126</v>
+        <v>1850099</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9275775888038712</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9140105353451817</v>
+        <v>0.9154348119724209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.939287490563673</v>
+        <v>0.9392739733487548</v>
       </c>
     </row>
     <row r="33">
@@ -7586,16 +7586,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3263</v>
+        <v>3431</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.003493287164747691</v>
+        <v>0.003493287164747692</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01689057825565514</v>
+        <v>0.01776005621343763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3479</v>
+        <v>3152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002201820685399618</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01135148463247933</v>
+        <v>0.01028622129891919</v>
       </c>
     </row>
     <row r="5">
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5269</v>
+        <v>6154</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009926136126218649</v>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.046500304243679</v>
+        <v>0.05431741215244915</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -7657,16 +7657,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4524</v>
+        <v>6048</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.007751633081989472</v>
+        <v>0.007751633081989473</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02341930270273699</v>
+        <v>0.03130690408687464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -7675,19 +7675,19 @@
         <v>2622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7127</v>
+        <v>7601</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008555545746027546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002420090772312698</v>
+        <v>0.002394893408288205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02325534881422006</v>
+        <v>0.02480301244580356</v>
       </c>
     </row>
     <row r="6">
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5962</v>
+        <v>5810</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0102094698663088</v>
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0526235253259431</v>
+        <v>0.0512810728816993</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -7725,19 +7725,19 @@
         <v>5424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2139</v>
+        <v>2406</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11671</v>
+        <v>12511</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0280792926632087</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01107147980869075</v>
+        <v>0.01245380162608221</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06041852234938411</v>
+        <v>0.06476709254997595</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -7746,19 +7746,19 @@
         <v>6581</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2905</v>
+        <v>2922</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12983</v>
+        <v>13553</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02147282830866626</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009478646340415219</v>
+        <v>0.00953590978035232</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04236212140389366</v>
+        <v>0.04422228842429147</v>
       </c>
     </row>
     <row r="7">
@@ -7778,16 +7778,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4269</v>
+        <v>6026</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.00726670932617495</v>
+        <v>0.007266709326174949</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03767466865789675</v>
+        <v>0.05318851128227645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7796,19 +7796,19 @@
         <v>3474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10202</v>
+        <v>10185</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01798334803074738</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00323668777149891</v>
+        <v>0.003191829275575437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05281619790835693</v>
+        <v>0.05272736961080569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -7817,19 +7817,19 @@
         <v>4297</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1414</v>
+        <v>1615</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11115</v>
+        <v>10255</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01402141217906394</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004613546881347769</v>
+        <v>0.005270876235524263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03626799706488994</v>
+        <v>0.03346107362426663</v>
       </c>
     </row>
     <row r="8">
@@ -7846,19 +7846,19 @@
         <v>110197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104949</v>
+        <v>105228</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>112471</v>
+        <v>112506</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9725976846812977</v>
+        <v>0.9725976846812976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9262776716879239</v>
+        <v>0.9287425680215379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9926695445779113</v>
+        <v>0.9929717861772106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>264</v>
@@ -7867,19 +7867,19 @@
         <v>182099</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>175155</v>
+        <v>173894</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187408</v>
+        <v>186844</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9426924390593068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9067424988425515</v>
+        <v>0.9002187312597423</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9701780012231647</v>
+        <v>0.967254456426579</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>375</v>
@@ -7888,19 +7888,19 @@
         <v>292296</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>284348</v>
+        <v>283363</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>298196</v>
+        <v>298135</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9537483930808425</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9278148920235575</v>
+        <v>0.9246006659152249</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9729999074471725</v>
+        <v>0.9727995161601001</v>
       </c>
     </row>
     <row r="9">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3834</v>
+        <v>4174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002477626861867213</v>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01351207367115853</v>
+        <v>0.01470900919493828</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -8029,16 +8029,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3211</v>
+        <v>3990</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.001530301489189387</v>
+        <v>0.001530301489189386</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006989738015213772</v>
+        <v>0.008683859861717517</v>
       </c>
     </row>
     <row r="11">
@@ -8055,19 +8055,19 @@
         <v>4090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1134</v>
+        <v>1356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10501</v>
+        <v>10869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02328182207455807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006457474027615986</v>
+        <v>0.007721498841604946</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05977265430714528</v>
+        <v>0.06187056356441108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -8076,19 +8076,19 @@
         <v>2638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7230</v>
+        <v>7637</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009296363521013087</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00258352416636217</v>
+        <v>0.002577355994285589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02547821809239555</v>
+        <v>0.02691007326986334</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -8097,19 +8097,19 @@
         <v>6728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2647</v>
+        <v>2776</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14203</v>
+        <v>14166</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01464373036636712</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005760870025751375</v>
+        <v>0.006042806784128889</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03091146771516678</v>
+        <v>0.03083295778290145</v>
       </c>
     </row>
     <row r="12">
@@ -8126,19 +8126,19 @@
         <v>4038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10663</v>
+        <v>10597</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0229862368504804</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007422081494935505</v>
+        <v>0.007360937011691743</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06069830235873887</v>
+        <v>0.060324441776516</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -8147,19 +8147,19 @@
         <v>11408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6239</v>
+        <v>6480</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19440</v>
+        <v>18840</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0402006577516521</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02198554509332687</v>
+        <v>0.02283446072656494</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06850194573380217</v>
+        <v>0.06638958807587075</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -8168,19 +8168,19 @@
         <v>15446</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8964</v>
+        <v>9588</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25118</v>
+        <v>24934</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03361869097262489</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0195096592687764</v>
+        <v>0.02086700629701672</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05466844989316554</v>
+        <v>0.05426823813908269</v>
       </c>
     </row>
     <row r="13">
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8545</v>
+        <v>7689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01397914415147072</v>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04863926767605153</v>
+        <v>0.04376582984351278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -8218,19 +8218,19 @@
         <v>5141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2113</v>
+        <v>2045</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10667</v>
+        <v>10880</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01811724704233392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007444732846167007</v>
+        <v>0.007204551080770375</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0375887050347678</v>
+        <v>0.03833933821866624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -8239,19 +8239,19 @@
         <v>7597</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3507</v>
+        <v>3277</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14600</v>
+        <v>14113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01653503548190878</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007633121083003787</v>
+        <v>0.007132244273777055</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0317758201978289</v>
+        <v>0.03071564613181566</v>
       </c>
     </row>
     <row r="14">
@@ -8268,19 +8268,19 @@
         <v>165091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156676</v>
+        <v>157138</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>170744</v>
+        <v>170436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9397527969234908</v>
+        <v>0.9397527969234909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8918526948949443</v>
+        <v>0.8944827036811078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9719284747182729</v>
+        <v>0.9701757612105932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>405</v>
@@ -8289,19 +8289,19 @@
         <v>263892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253038</v>
+        <v>255322</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269838</v>
+        <v>270180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9299081048231337</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8916598382548574</v>
+        <v>0.8997070114908098</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9508620083077325</v>
+        <v>0.9520663617989559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>587</v>
@@ -8310,19 +8310,19 @@
         <v>428983</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>416863</v>
+        <v>416831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>439064</v>
+        <v>438315</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9336722416899098</v>
+        <v>0.9336722416899099</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9072938702347972</v>
+        <v>0.9072224023088447</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9556138787886358</v>
+        <v>0.953981729966462</v>
       </c>
     </row>
     <row r="15">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9731</v>
+        <v>6925</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00628452839836962</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0500620054749629</v>
+        <v>0.03562228243541185</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -8482,19 +8482,19 @@
         <v>1878</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5269</v>
+        <v>5323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007944467884123859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002290970413175538</v>
+        <v>0.002304811257384351</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02229136729448557</v>
+        <v>0.0225159940760403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -8503,19 +8503,19 @@
         <v>3100</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8808</v>
+        <v>8143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00719542330146111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001624265467307175</v>
+        <v>0.001622300110564675</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02044652166890284</v>
+        <v>0.01890347312855108</v>
       </c>
     </row>
     <row r="18">
@@ -8532,19 +8532,19 @@
         <v>6358</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1626</v>
+        <v>1789</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18028</v>
+        <v>16544</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03270905592391966</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008364729403301423</v>
+        <v>0.009201223903224845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09274089769136942</v>
+        <v>0.08511110883263251</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -8553,19 +8553,19 @@
         <v>9350</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5393</v>
+        <v>5285</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15041</v>
+        <v>15038</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03955268049342144</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0228141771773646</v>
+        <v>0.02235624017656344</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06362598732161287</v>
+        <v>0.06361419307423025</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -8574,19 +8574,19 @@
         <v>15708</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9390</v>
+        <v>9266</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26477</v>
+        <v>27823</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03646450772956085</v>
+        <v>0.03646450772956086</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02179784312635067</v>
+        <v>0.0215092586295762</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06146355692645922</v>
+        <v>0.06458681529686683</v>
       </c>
     </row>
     <row r="19">
@@ -8603,19 +8603,19 @@
         <v>11929</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6481</v>
+        <v>6822</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19326</v>
+        <v>20029</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0613648779144605</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03334312991650529</v>
+        <v>0.03509581254075508</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09941980162483804</v>
+        <v>0.1030386807801269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -8624,19 +8624,19 @@
         <v>13432</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8375</v>
+        <v>8915</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20112</v>
+        <v>20634</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05681950526893276</v>
+        <v>0.05681950526893274</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03542759926648501</v>
+        <v>0.03771108205724888</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08507972003503628</v>
+        <v>0.08728614000629134</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -8645,19 +8645,19 @@
         <v>25360</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17416</v>
+        <v>17968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33950</v>
+        <v>35108</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05887059615841116</v>
+        <v>0.05887059615841117</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0404281244210241</v>
+        <v>0.0417108852931671</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07881018994792907</v>
+        <v>0.0814982555965998</v>
       </c>
     </row>
     <row r="20">
@@ -8674,19 +8674,19 @@
         <v>174879</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>163287</v>
+        <v>163418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>182468</v>
+        <v>182383</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8996415377632501</v>
+        <v>0.8996415377632504</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8400084419259355</v>
+        <v>0.8406822970744273</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9386843331165182</v>
+        <v>0.9382470464662326</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>305</v>
@@ -8695,19 +8695,19 @@
         <v>211731</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>203982</v>
+        <v>203374</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>219186</v>
+        <v>218594</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8956833463535219</v>
+        <v>0.895683346353522</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8629028874012515</v>
+        <v>0.8603319180776335</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9272214511197706</v>
+        <v>0.924718104028655</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>494</v>
@@ -8716,19 +8716,19 @@
         <v>386609</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373899</v>
+        <v>372930</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>397513</v>
+        <v>397259</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8974694728105668</v>
+        <v>0.8974694728105669</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8679650603455987</v>
+        <v>0.8657157487601741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9227809282999532</v>
+        <v>0.9221910205418763</v>
       </c>
     </row>
     <row r="21">
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7287</v>
+        <v>7555</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0110559686978742</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0375954625842105</v>
+        <v>0.0389797308288642</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3475</v>
+        <v>3686</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005161091062199737</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01679002171518372</v>
+        <v>0.01780954522041015</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -8909,19 +8909,19 @@
         <v>3211</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>801</v>
+        <v>996</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8703</v>
+        <v>8296</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008012063043555213</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001998421746185687</v>
+        <v>0.002485055308546134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0217145089287184</v>
+        <v>0.0207003137590678</v>
       </c>
     </row>
     <row r="24">
@@ -8938,19 +8938,19 @@
         <v>23170</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14318</v>
+        <v>13898</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36372</v>
+        <v>35566</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1195378622380246</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07387051017223928</v>
+        <v>0.07170420671419128</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1876486982073863</v>
+        <v>0.1834926008442319</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -8959,19 +8959,19 @@
         <v>22750</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15840</v>
+        <v>15828</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31372</v>
+        <v>32608</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1099291214474545</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.076539437165032</v>
+        <v>0.07648420730661533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1515945658308218</v>
+        <v>0.1575662884762708</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>49</v>
@@ -8980,19 +8980,19 @@
         <v>45920</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>34083</v>
+        <v>33615</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>62120</v>
+        <v>61568</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1145762494224678</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08504220475142125</v>
+        <v>0.08387403104918165</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1549989550396537</v>
+        <v>0.1536225283428178</v>
       </c>
     </row>
     <row r="25">
@@ -9009,19 +9009,19 @@
         <v>14113</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8115</v>
+        <v>7726</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23462</v>
+        <v>23559</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07281117020334274</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04186661083584671</v>
+        <v>0.03985788184483788</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1210462312543662</v>
+        <v>0.1215465701533221</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -9030,19 +9030,19 @@
         <v>13639</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8240</v>
+        <v>8320</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19961</v>
+        <v>20507</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06590538704102708</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03981549866141745</v>
+        <v>0.04020174424133673</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09645359614884541</v>
+        <v>0.09909239196619092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -9051,19 +9051,19 @@
         <v>27752</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19094</v>
+        <v>18946</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38148</v>
+        <v>38498</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0692452688031064</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04764173347776122</v>
+        <v>0.04727273278373096</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09518620589676129</v>
+        <v>0.09605779133157334</v>
       </c>
     </row>
     <row r="26">
@@ -9080,19 +9080,19 @@
         <v>154404</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140393</v>
+        <v>140764</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>165134</v>
+        <v>165269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7965949988607584</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7243117385406229</v>
+        <v>0.7262260937279101</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8519537501753541</v>
+        <v>0.8526515327837713</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>236</v>
@@ -9101,19 +9101,19 @@
         <v>169491</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>158995</v>
+        <v>158241</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>178341</v>
+        <v>178172</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8190044004493187</v>
+        <v>0.8190044004493188</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7682875598166905</v>
+        <v>0.7646434150875266</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8617695110098454</v>
+        <v>0.8609564802763605</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>389</v>
@@ -9122,19 +9122,19 @@
         <v>323895</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>306258</v>
+        <v>307494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>339548</v>
+        <v>339737</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8081664187308707</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7641596479476244</v>
+        <v>0.7672453043290495</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8472244918566298</v>
+        <v>0.8476964996764664</v>
       </c>
     </row>
     <row r="27">
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4152</v>
+        <v>4959</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001497250945911237</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004511654099622476</v>
+        <v>0.005388009694855924</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -9263,16 +9263,16 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4429</v>
+        <v>4767</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0008625465102063943</v>
+        <v>0.0008625465102063944</v>
       </c>
       <c r="V28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.002772303519158978</v>
+        <v>0.002984212196909357</v>
       </c>
     </row>
     <row r="29">
@@ -9289,19 +9289,19 @@
         <v>8579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3937</v>
+        <v>3508</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16513</v>
+        <v>16595</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01266887383125728</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005813896657301884</v>
+        <v>0.005180053661701602</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02438498880381158</v>
+        <v>0.0245060043483075</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -9310,19 +9310,19 @@
         <v>7082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3761</v>
+        <v>3412</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12883</v>
+        <v>12638</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00769496295779403</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004087122673999791</v>
+        <v>0.003707716467793365</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01399901004461413</v>
+        <v>0.01373250656435769</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -9331,19 +9331,19 @@
         <v>15661</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8774</v>
+        <v>9147</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24009</v>
+        <v>24826</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009803469419458892</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005492383308938737</v>
+        <v>0.005726153177307745</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01502924188147964</v>
+        <v>0.01554081160945527</v>
       </c>
     </row>
     <row r="30">
@@ -9360,19 +9360,19 @@
         <v>34723</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23256</v>
+        <v>22619</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>51966</v>
+        <v>51781</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05127497359185098</v>
+        <v>0.05127497359185097</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03434143791519691</v>
+        <v>0.03340040179277283</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07673734795182748</v>
+        <v>0.07646365552198364</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>66</v>
@@ -9381,19 +9381,19 @@
         <v>48932</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38177</v>
+        <v>37456</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>62075</v>
+        <v>62457</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05316991076179457</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04148329180260684</v>
+        <v>0.04069974154279159</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06745158612719773</v>
+        <v>0.06786631043207779</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>94</v>
@@ -9402,19 +9402,19 @@
         <v>83655</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>68121</v>
+        <v>66528</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>103948</v>
+        <v>104493</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05236662188732123</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04264272492556601</v>
+        <v>0.0416456823178071</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06506998574825866</v>
+        <v>0.06541098389870395</v>
       </c>
     </row>
     <row r="31">
@@ -9431,19 +9431,19 @@
         <v>29321</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20108</v>
+        <v>20118</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41709</v>
+        <v>41654</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0432972771255546</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02969300770797724</v>
+        <v>0.02970734207785802</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06159064158556404</v>
+        <v>0.06151002165251226</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>53</v>
@@ -9452,19 +9452,19 @@
         <v>35686</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27647</v>
+        <v>26554</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47526</v>
+        <v>46272</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03877659479193855</v>
+        <v>0.03877659479193856</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03004179483670419</v>
+        <v>0.02885395060870461</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05164284345028452</v>
+        <v>0.05027959226973081</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>84</v>
@@ -9473,19 +9473,19 @@
         <v>65006</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53020</v>
+        <v>53167</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>81520</v>
+        <v>82033</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04069297169415006</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03318984683310262</v>
+        <v>0.0332818904308451</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05103055221549101</v>
+        <v>0.05135163393363111</v>
       </c>
     </row>
     <row r="32">
@@ -9502,19 +9502,19 @@
         <v>604571</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>586106</v>
+        <v>583898</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>620857</v>
+        <v>620405</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.892758875451337</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8654921214277376</v>
+        <v>0.862231782692974</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9168075615089303</v>
+        <v>0.9161410382980255</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1210</v>
@@ -9523,19 +9523,19 @@
         <v>827212</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>810202</v>
+        <v>808880</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>842024</v>
+        <v>841927</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8988612805425616</v>
+        <v>0.8988612805425618</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8803775732826724</v>
+        <v>0.8789413776431074</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9149562854273542</v>
+        <v>0.9148506535228831</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1845</v>
@@ -9544,19 +9544,19 @@
         <v>1431784</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1407602</v>
+        <v>1404107</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1453683</v>
+        <v>1454451</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8962743904888634</v>
+        <v>0.8962743904888635</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8811367228555694</v>
+        <v>0.8789489445952732</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9099826059454964</v>
+        <v>0.9104635111079084</v>
       </c>
     </row>
     <row r="33">
